--- a/output/gold_output_20200526.xlsx
+++ b/output/gold_output_20200526.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="360" windowWidth="21975" windowHeight="10875" activeTab="1"/>
+    <workbookView xWindow="2445" yWindow="0" windowWidth="16680" windowHeight="7170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
   <si>
     <t>dv</t>
   </si>
@@ -30,15 +30,6 @@
     <t>StdErr</t>
   </si>
   <si>
-    <t>reg_t_test</t>
-  </si>
-  <si>
-    <t>type3_f_test</t>
-  </si>
-  <si>
-    <t>ProbF</t>
-  </si>
-  <si>
     <t>strep</t>
   </si>
   <si>
@@ -115,6 +106,102 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>tValue</t>
+  </si>
+  <si>
+    <t>Probt</t>
+  </si>
+  <si>
+    <t>cValue2</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1272</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5903</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0183</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0172</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1640</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3263</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0216</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1539</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0969</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2695</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5287</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0395</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0321</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0752</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0893</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3208</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0667</t>
   </si>
 </sst>
 </file>
@@ -166,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -175,12 +262,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -508,49 +591,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -558,10 +641,10 @@
         <v>2008</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -587,10 +670,10 @@
         <v>2009</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -628,10 +711,10 @@
         <v>2010</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
@@ -673,10 +756,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -718,10 +801,10 @@
         <v>2012</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
@@ -761,10 +844,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
@@ -804,10 +887,10 @@
         <v>2014</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
@@ -847,10 +930,10 @@
         <v>2015</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>95</v>
@@ -890,10 +973,10 @@
         <v>2016</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>96</v>
@@ -933,10 +1016,10 @@
         <v>2017</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <v>93</v>
@@ -976,10 +1059,10 @@
         <v>2018</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
         <v>100</v>
@@ -1019,10 +1102,10 @@
         <v>2019</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
         <v>100</v>
@@ -1060,10 +1143,10 @@
         <v>2008</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
@@ -1091,10 +1174,10 @@
         <v>2009</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
@@ -1134,10 +1217,10 @@
         <v>2010</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
@@ -1177,10 +1260,10 @@
         <v>2011</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
@@ -1218,10 +1301,10 @@
         <v>2012</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
@@ -1259,10 +1342,10 @@
         <v>2013</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
@@ -1300,10 +1383,10 @@
         <v>2014</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
@@ -1341,10 +1424,10 @@
         <v>2015</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
@@ -1382,10 +1465,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
@@ -1423,10 +1506,10 @@
         <v>2017</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2">
@@ -1464,10 +1547,10 @@
         <v>2018</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
@@ -1505,10 +1588,10 @@
         <v>2019</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
@@ -1546,10 +1629,10 @@
         <v>2008</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2">
@@ -1579,10 +1662,10 @@
         <v>2009</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2">
@@ -1620,10 +1703,10 @@
         <v>2010</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
@@ -1659,10 +1742,10 @@
         <v>2011</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
@@ -1698,10 +1781,10 @@
         <v>2012</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1721,10 +1804,10 @@
         <v>2013</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1744,10 +1827,10 @@
         <v>2014</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1767,10 +1850,10 @@
         <v>2015</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2">
@@ -1808,10 +1891,10 @@
         <v>2016</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2">
@@ -1847,10 +1930,10 @@
         <v>2017</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2">
@@ -1888,10 +1971,10 @@
         <v>2018</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
@@ -1927,10 +2010,10 @@
         <v>2019</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1964,10 +2047,10 @@
         <v>2008</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
@@ -1993,10 +2076,10 @@
         <v>2009</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2016,10 +2099,10 @@
         <v>2010</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2039,10 +2122,10 @@
         <v>2011</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2">
@@ -2068,10 +2151,10 @@
         <v>2012</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
@@ -2101,10 +2184,10 @@
         <v>2013</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
@@ -2132,10 +2215,10 @@
         <v>2014</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
@@ -2163,10 +2246,10 @@
         <v>2015</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
@@ -2194,10 +2277,10 @@
         <v>2016</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
@@ -2225,10 +2308,10 @@
         <v>2017</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2">
@@ -2256,10 +2339,10 @@
         <v>2018</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
@@ -2287,10 +2370,10 @@
         <v>2019</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2">
@@ -2312,544 +2395,544 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="10">
         <v>2008</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14">
+      <c r="B50" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10">
         <v>90</v>
       </c>
-      <c r="F50" s="14">
-        <v>100</v>
-      </c>
-      <c r="G50" s="14">
+      <c r="F50" s="10">
+        <v>100</v>
+      </c>
+      <c r="G50" s="10">
         <v>60</v>
       </c>
-      <c r="H50" s="14">
-        <v>100</v>
-      </c>
-      <c r="I50" s="14">
-        <v>100</v>
-      </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14">
+      <c r="H50" s="10">
+        <v>100</v>
+      </c>
+      <c r="I50" s="10">
+        <v>100</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10">
         <v>84</v>
       </c>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14">
-        <v>100</v>
-      </c>
-      <c r="O50" s="14"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10">
+        <v>100</v>
+      </c>
+      <c r="O50" s="10"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="10">
         <v>2009</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14">
+      <c r="B51" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10">
         <v>62</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="10">
         <v>91</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="10">
         <v>75</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="10">
         <v>82</v>
       </c>
-      <c r="I51" s="14">
-        <v>100</v>
-      </c>
-      <c r="J51" s="14">
+      <c r="I51" s="10">
+        <v>100</v>
+      </c>
+      <c r="J51" s="10">
         <v>81</v>
       </c>
-      <c r="K51" s="14">
-        <v>100</v>
-      </c>
-      <c r="L51" s="14">
-        <v>100</v>
-      </c>
-      <c r="M51" s="14">
+      <c r="K51" s="10">
+        <v>100</v>
+      </c>
+      <c r="L51" s="10">
+        <v>100</v>
+      </c>
+      <c r="M51" s="10">
         <v>63</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="10">
         <v>91</v>
       </c>
-      <c r="O51" s="14"/>
+      <c r="O51" s="10"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="10">
         <v>2010</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="14">
-        <v>100</v>
-      </c>
-      <c r="E52" s="14">
+      <c r="B52" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="10">
+        <v>100</v>
+      </c>
+      <c r="E52" s="10">
         <v>84</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="10">
         <v>94</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="10">
         <v>75</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="10">
         <v>92</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="10">
         <v>82</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="10">
         <v>68</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="10">
         <v>82</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="10">
         <v>66</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M52" s="10">
         <v>73</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N52" s="10">
         <v>76</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O52" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="10">
         <v>2011</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="14">
-        <v>100</v>
-      </c>
-      <c r="E53" s="14">
+      <c r="B53" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="10">
+        <v>100</v>
+      </c>
+      <c r="E53" s="10">
         <v>90</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="10">
         <v>82</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="10">
         <v>60</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="10">
         <v>88</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="10">
         <v>86</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="10">
         <v>89</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="10">
         <v>80</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L53" s="10">
         <v>84</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M53" s="10">
         <v>72</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N53" s="10">
         <v>82</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O53" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="10">
         <v>2012</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="14">
-        <v>100</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="B54" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="10">
+        <v>100</v>
+      </c>
+      <c r="E54" s="10">
         <v>92</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="10">
         <v>96</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="10">
         <v>75</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="10">
         <v>89</v>
       </c>
-      <c r="I54" s="14">
-        <v>100</v>
-      </c>
-      <c r="J54" s="14">
+      <c r="I54" s="10">
+        <v>100</v>
+      </c>
+      <c r="J54" s="10">
         <v>85</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K54" s="10">
         <v>95</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L54" s="10">
         <v>83</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M54" s="10">
         <v>50</v>
       </c>
-      <c r="N54" s="14">
+      <c r="N54" s="10">
         <v>91</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O54" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="10">
         <v>2013</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="14">
-        <v>100</v>
-      </c>
-      <c r="E55" s="14">
+      <c r="B55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="10">
+        <v>100</v>
+      </c>
+      <c r="E55" s="10">
         <v>89</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="10">
         <v>89</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="10">
         <v>51</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="10">
         <v>86</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="10">
         <v>92</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="10">
         <v>80</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="10">
         <v>94</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L55" s="10">
         <v>84</v>
       </c>
-      <c r="M55" s="14">
-        <v>100</v>
-      </c>
-      <c r="N55" s="14">
+      <c r="M55" s="10">
+        <v>100</v>
+      </c>
+      <c r="N55" s="10">
         <v>86</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O55" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="10">
         <v>2014</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="14">
-        <v>100</v>
-      </c>
-      <c r="E56" s="14">
+      <c r="B56" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="10">
+        <v>100</v>
+      </c>
+      <c r="E56" s="10">
         <v>92</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="10">
         <v>80</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="10">
         <v>62</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="10">
         <v>86</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="10">
         <v>80</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="10">
         <v>69</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="10">
         <v>78</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="10">
         <v>76</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M56" s="10">
         <v>66</v>
       </c>
-      <c r="N56" s="14">
+      <c r="N56" s="10">
         <v>66</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O56" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="10">
         <v>2015</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="14">
+      <c r="B57" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="10">
         <v>95</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="10">
         <v>86</v>
       </c>
-      <c r="F57" s="14">
-        <v>100</v>
-      </c>
-      <c r="G57" s="14">
+      <c r="F57" s="10">
+        <v>100</v>
+      </c>
+      <c r="G57" s="10">
         <v>67</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="10">
         <v>89</v>
       </c>
-      <c r="I57" s="14">
-        <v>100</v>
-      </c>
-      <c r="J57" s="14">
+      <c r="I57" s="10">
+        <v>100</v>
+      </c>
+      <c r="J57" s="10">
         <v>85</v>
       </c>
-      <c r="K57" s="14">
-        <v>100</v>
-      </c>
-      <c r="L57" s="14">
+      <c r="K57" s="10">
+        <v>100</v>
+      </c>
+      <c r="L57" s="10">
         <v>80</v>
       </c>
-      <c r="M57" s="14">
-        <v>100</v>
-      </c>
-      <c r="N57" s="14">
+      <c r="M57" s="10">
+        <v>100</v>
+      </c>
+      <c r="N57" s="10">
         <v>83</v>
       </c>
-      <c r="O57" s="14"/>
+      <c r="O57" s="10"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="10">
         <v>2016</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" s="14">
+      <c r="B58" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="10">
         <v>96</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="10">
         <v>92</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="10">
         <v>92</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="10">
         <v>67</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="10">
         <v>87</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="10">
         <v>93</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="10">
         <v>86</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="10">
         <v>94</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="10">
         <v>76</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58" s="10">
         <v>77</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N58" s="10">
         <v>86</v>
       </c>
-      <c r="O58" s="14"/>
+      <c r="O58" s="10"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59" s="10">
         <v>2017</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="14">
+      <c r="B59" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="10">
         <v>93</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="10">
         <v>82</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="10">
         <v>87</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="10">
         <v>59</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="10">
         <v>75</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="10">
         <v>84</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="10">
         <v>74</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="10">
         <v>81</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="10">
         <v>72</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="10">
         <v>80</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N59" s="10">
         <v>72</v>
       </c>
-      <c r="O59" s="14"/>
+      <c r="O59" s="10"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="10">
         <v>2018</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="14">
+      <c r="B60" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="10">
         <v>94</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="10">
         <v>80</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="10">
         <v>92</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="10">
         <v>76</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="10">
         <v>86</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="10">
         <v>95</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="10">
         <v>87</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="10">
         <v>97</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="10">
         <v>86</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M60" s="10">
         <v>75</v>
       </c>
-      <c r="N60" s="14">
+      <c r="N60" s="10">
         <v>81</v>
       </c>
-      <c r="O60" s="14"/>
+      <c r="O60" s="10"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="10">
         <v>2019</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="14">
-        <v>100</v>
-      </c>
-      <c r="E61" s="14">
+      <c r="B61" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="10">
+        <v>100</v>
+      </c>
+      <c r="E61" s="10">
         <v>85</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="10">
         <v>86</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="10">
         <v>70</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="10">
         <v>88</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="10">
         <v>86</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="10">
         <v>92</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="10">
         <v>92</v>
       </c>
-      <c r="L61" s="14">
-        <v>100</v>
-      </c>
-      <c r="M61" s="14">
+      <c r="L61" s="10">
+        <v>100</v>
+      </c>
+      <c r="M61" s="10">
         <v>22</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N61" s="10">
         <v>88</v>
       </c>
-      <c r="O61" s="14"/>
+      <c r="O61" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2858,20 +2941,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:H57"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8" style="7" customWidth="1"/>
+    <col min="15" max="15" width="7" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2886,1029 +2975,1147 @@
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10">
+        <v>-0.31515151515151513</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.29182305921219076</v>
+      </c>
+      <c r="F2" s="8">
+        <v>-1.0799404132158101</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.31164790248075502</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.12720000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10">
+        <v>-0.79393939393939394</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.23386401674633217</v>
+      </c>
+      <c r="F3" s="8">
+        <v>-3.3948762404118153</v>
+      </c>
+      <c r="G3" s="9">
+        <v>9.4316682926810745E-3</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.59030000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>-0.2818181818181818</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.68821244077417909</v>
+      </c>
+      <c r="F4" s="8">
+        <v>-0.40949300698656488</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.69175226295974512</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.14335664335827153</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.0571031320560227</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.13561273163522719</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.8948184570880573</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10">
+        <v>-0.21328671328671328</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.50986406747683699</v>
+      </c>
+      <c r="F6" s="8">
+        <v>-0.4183207385886295</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.68455430188863264</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10">
+        <v>-0.2818181818181818</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.68821244077417909</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-0.40949300698656488</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.69175226295974512</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-0.93636363636363629</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.70477187629223625</v>
+      </c>
+      <c r="F8" s="8">
+        <v>-1.3286052804629362</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.21667849604399511</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-9.0909090909090912E-2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.76457373925267025</v>
+      </c>
+      <c r="F9" s="8">
+        <v>-0.11890166538802348</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.90796491039892691</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-1.8000000000021166</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.86209857774999044</v>
+      </c>
+      <c r="F10" s="8">
+        <v>-2.087928279269379</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6.6406079383282135E-2</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.32629999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="10">
+        <v>10.103629710818481</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.1484614977916176</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.9061718193990278</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-0.68181818182029841</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.5328079368030576</v>
+      </c>
+      <c r="F12" s="8">
+        <v>-1.2796697172180445</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.23266297853945081</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.15390000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10">
+        <v>-0.31515151515151513</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.29182305921219076</v>
+      </c>
+      <c r="F13" s="8">
+        <v>-1.0799404132158101</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.31164790248075502</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.15390000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1.5734265734265733</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.5185670664862214</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.0361258374101909</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.32454901209580589</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="10">
+        <v>9.69E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3.999999999997883</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3.5996887938135353</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.1112071707066253</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.29528173689853676</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.1206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8">
-        <v>-0.31515151515151513</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.29182305921219076</v>
-      </c>
-      <c r="F2" s="9">
-        <v>-1.0799404132158101</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1.166271296096735</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.31164790248075491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="10">
+        <v>-1.0454545454529172</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2.3018115717784591</v>
+      </c>
+      <c r="F16" s="8">
+        <v>-0.45418771817415221</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.65939237662848005</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10">
+        <v>-5.5069930069930066</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.8674070310671436</v>
+      </c>
+      <c r="F17" s="8">
+        <v>-1.920548058691028</v>
+      </c>
+      <c r="G17" s="9">
+        <v>8.3733066375474272E-2</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.26950000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10">
+        <v>-2.4000000000021164</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.93126492567833674</v>
+      </c>
+      <c r="F18" s="8">
+        <v>-2.5771399027553281</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2.9836276590413199E-2</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.42459999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10">
+        <v>4.2363636363636363</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.8064663624433792</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1.5095009486147388</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.16544979885615238</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10">
+        <v>-2.5454545454566619</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.80116994341756731</v>
+      </c>
+      <c r="F20" s="8">
+        <v>-3.17717179278901</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1.123572178970101E-2</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.52869999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10">
+        <v>-1.1853146853130572</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1.8492118577274237</v>
+      </c>
+      <c r="F21" s="8">
+        <v>-0.64098371441860724</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.53594579525502017</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="10">
+        <v>3.95E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10">
+        <v>33</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10">
+        <v>-4.2818181818181813</v>
+      </c>
+      <c r="E23" s="10">
+        <v>3.3728225639292422</v>
+      </c>
+      <c r="F23" s="8">
+        <v>-1.2695059110462026</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.23610341495420639</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.15190000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8">
-        <v>-0.79393939393939394</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.23386401674633217</v>
-      </c>
-      <c r="F3" s="9">
-        <v>-3.3948762404118153</v>
-      </c>
-      <c r="G3" s="9">
-        <v>11.52518468771266</v>
-      </c>
-      <c r="H3" s="10">
-        <v>9.4316682924665673E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.074074074074074</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2.4066787240026422</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.44628893061710334</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.67104332673532574</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="10">
+        <v>3.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="10">
+        <v>-1.4285714285697655</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1.8936752179041907</v>
+      </c>
+      <c r="F37" s="8">
+        <v>-0.75439094046487287</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.47522242097010836</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="10">
+        <v>7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
-        <v>-0.2818181818181818</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.68821244077417909</v>
-      </c>
-      <c r="F4" s="9">
-        <v>-0.40949300698656488</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.16768452277089893</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.69175226295974546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="10">
+        <v>-1.0454545454529172</v>
+      </c>
+      <c r="E38" s="10">
+        <v>2.3018115717784591</v>
+      </c>
+      <c r="F38" s="8">
+        <v>-0.45418771817415221</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.65939237662848005</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="10">
+        <v>7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10">
+        <v>-0.95238095238039799</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1.1496397373757163</v>
+      </c>
+      <c r="F39" s="8">
+        <v>-0.82841686957898553</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.43476684676438637</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="10">
+        <v>8.9300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="10">
+        <v>-3.2232704402127141</v>
+      </c>
+      <c r="E40" s="10">
+        <v>2.0976398535396754</v>
+      </c>
+      <c r="F40" s="8">
+        <v>-1.536617658543046</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.18498937545124894</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.32079999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.14335664335827153</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1.0571031320560227</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.13561273163522719</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1.8390812981568149E-2</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.89481845708805596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1.1311672683513838</v>
+      </c>
+      <c r="E41" s="10">
+        <v>4.0090326905963112</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.28215466314472276</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.78730482051514739</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8">
-        <v>-0.21328671328671328</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.50986406747683699</v>
-      </c>
-      <c r="F6" s="9">
-        <v>-0.4183207385886295</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.17499224033333646</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.68455430188863242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.10830324909747292</v>
+      </c>
+      <c r="E42" s="10">
+        <v>2.7126840536424299</v>
+      </c>
+      <c r="F42" s="8">
+        <v>3.992475605555678E-2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.9694484436037839</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8">
-        <v>-0.2818181818181818</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.68821244077417909</v>
-      </c>
-      <c r="F7" s="9">
-        <v>-0.40949300698656488</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.16768452277089893</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.69175226295974546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8">
-        <v>-0.93636363636363629</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.70477187629223625</v>
-      </c>
-      <c r="F8" s="9">
-        <v>-1.3286052804629362</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1.7651919912739973</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.21667849604467537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2.4428399518652228</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3.7292287394470525</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.65505232382914447</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.53672366865745647</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="10">
+        <v>6.6699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
-        <v>-9.0909090909090912E-2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.76457373925267025</v>
-      </c>
-      <c r="F9" s="9">
-        <v>-0.11890166538802348</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1.41376060320455E-2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.90796491039892779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
-        <v>-1.8000000000021166</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.86209857774999044</v>
-      </c>
-      <c r="F10" s="9">
-        <v>-2.087928279269379</v>
-      </c>
-      <c r="G10" s="9">
-        <v>4.359444499372791</v>
-      </c>
-      <c r="H10" s="10">
-        <v>6.6406079351332511E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="8">
-        <v>10.103629710818481</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.1484614977916176</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2.2040816326530481E-2</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.9061718193990278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8">
-        <v>-0.68181818182029841</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.5328079368030576</v>
-      </c>
-      <c r="F12" s="9">
-        <v>-1.2796697172180445</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1.6375545851649094</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.23266297853978279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1.5734265734265733</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1.5185670664862214</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1.0361258374101909</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1.0735567509489696</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0.32454901209580589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="8">
-        <v>3.999999999997883</v>
-      </c>
-      <c r="E15" s="8">
-        <v>3.5996887938135353</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1.1112071707066253</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1.234781376229823</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.29528173689855841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8">
-        <v>-1.0454545454529172</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2.3018115717784591</v>
-      </c>
-      <c r="F16" s="9">
-        <v>-0.45418771817415221</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.20628648334024319</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0.65939237662847994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8">
-        <v>-5.5069930069930066</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.8674070310671436</v>
-      </c>
-      <c r="F17" s="9">
-        <v>-1.920548058691028</v>
-      </c>
-      <c r="G17" s="9">
-        <v>3.6885048457418765</v>
-      </c>
-      <c r="H17" s="10">
-        <v>8.373306637547473E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="11">
-        <v>-2.4000000000021164</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.93126492567833674</v>
-      </c>
-      <c r="F18" s="12">
-        <v>-2.5771399027553281</v>
-      </c>
-      <c r="G18" s="12">
-        <v>6.6416500783737416</v>
-      </c>
-      <c r="H18" s="13">
-        <v>2.9836276585033402E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8">
-        <v>4.2363636363636363</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2.8064663624433792</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1.5095009486147388</v>
-      </c>
-      <c r="G19" s="9">
-        <v>2.2785931138687969</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.16544979885616351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="11">
-        <v>-2.5454545454566619</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.80116994341756731</v>
-      </c>
-      <c r="F20" s="12">
-        <v>-3.17717179278901</v>
-      </c>
-      <c r="G20" s="12">
-        <v>10.094420600894132</v>
-      </c>
-      <c r="H20" s="13">
-        <v>1.1235721788094162E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="8">
-        <v>-1.1853146853130572</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1.8492118577274237</v>
-      </c>
-      <c r="F21" s="9">
-        <v>-0.64098371441860724</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.41086012214987472</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.53594579525505015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="8">
-        <v>33</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8">
-        <v>-4.2818181818181813</v>
-      </c>
-      <c r="E23" s="8">
-        <v>3.3728225639292422</v>
-      </c>
-      <c r="F23" s="9">
-        <v>-1.2695059110462026</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1.6116452581812488</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0.23610341495449139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1.074074074074074</v>
-      </c>
-      <c r="E36" s="8">
-        <v>2.4066787240026422</v>
-      </c>
-      <c r="F36" s="9">
-        <v>0.44628893061710334</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0.19917380959135766</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0.67104332673532574</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="8">
-        <v>-1.4285714285697655</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1.8936752179041907</v>
-      </c>
-      <c r="F37" s="9">
-        <v>-0.75439094046487287</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0.56910569105547537</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0.47522242097010803</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="8">
-        <v>-1.4285714285697655</v>
-      </c>
-      <c r="E38" s="8">
-        <v>1.8936752179041907</v>
-      </c>
-      <c r="F38" s="9">
-        <v>-0.75439094046487287</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0.56910569105547537</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0.47522242097010803</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="8">
-        <v>-0.95238095238039799</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1.1496397373757163</v>
-      </c>
-      <c r="F39" s="9">
-        <v>-0.82841686957898553</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0.68627450980304605</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0.43476684676438648</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="8">
-        <v>-3.2232704402127141</v>
-      </c>
-      <c r="E40" s="8">
-        <v>2.0976398535396754</v>
-      </c>
-      <c r="F40" s="9">
-        <v>-1.536617658543046</v>
-      </c>
-      <c r="G40" s="9">
-        <v>2.361193828546313</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0.18498937545212712</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1.1311672683513838</v>
-      </c>
-      <c r="E41" s="8">
-        <v>4.0090326905963112</v>
-      </c>
-      <c r="F41" s="9">
-        <v>0.28215466314472276</v>
-      </c>
-      <c r="G41" s="9">
-        <v>7.9611253934311996E-2</v>
-      </c>
-      <c r="H41" s="10">
-        <v>0.78730482051514805</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="8">
-        <v>0.10830324909747292</v>
-      </c>
-      <c r="E42" s="8">
-        <v>2.7126840536424299</v>
-      </c>
-      <c r="F42" s="9">
-        <v>3.992475605555678E-2</v>
-      </c>
-      <c r="G42" s="9">
-        <v>1.5939861460957179E-3</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0.96944844360378057</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="8">
-        <v>2.4428399518652228</v>
-      </c>
-      <c r="E44" s="8">
-        <v>3.7292287394470525</v>
-      </c>
-      <c r="F44" s="9">
-        <v>0.65505232382914447</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0.42909354695396235</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0.5367236686574568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="8">
+        <v>6</v>
+      </c>
+      <c r="D45" s="10">
         <v>-0.47619047618936744</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="10">
         <v>0.57481986868796309</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>-0.82841686957738769</v>
       </c>
       <c r="G45" s="9">
-        <v>0.68627450980039861</v>
-      </c>
-      <c r="H45" s="10">
         <v>0.43476684676523258</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="10">
+        <v>8.9300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>-0.56969999999999998</v>
@@ -3925,16 +4132,19 @@
       <c r="H46">
         <v>7.4200000000000002E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="9">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>0.30769999999999997</v>
@@ -3951,16 +4161,19 @@
       <c r="H47">
         <v>0.6825</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="9">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>-0.49299999999999999</v>
@@ -3977,16 +4190,19 @@
       <c r="H48">
         <v>0.37859999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="9">
+        <v>7.8200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>0.1014</v>
@@ -4003,16 +4219,19 @@
       <c r="H49">
         <v>0.88919999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>-0.76919999999999999</v>
@@ -4029,16 +4248,19 @@
       <c r="H50">
         <v>0.11840000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="9">
+        <v>0.2258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>-0.56640000000000001</v>
@@ -4055,16 +4277,19 @@
       <c r="H51">
         <v>0.40129999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="9">
+        <v>7.1400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>0.84550000000000003</v>
@@ -4081,16 +4306,19 @@
       <c r="H52">
         <v>0.29010000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="9">
+        <v>0.1231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>0.2455</v>
@@ -4107,16 +4335,19 @@
       <c r="H53">
         <v>0.77569999999999995</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="9">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>0.12239999999999999</v>
@@ -4133,16 +4364,19 @@
       <c r="H54">
         <v>0.89190000000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="9">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>-1.0818000000000001</v>
@@ -4159,16 +4393,19 @@
       <c r="H55">
         <v>0.62860000000000005</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="9">
+        <v>2.7099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>-0.95799999999999996</v>
@@ -4185,16 +4422,19 @@
       <c r="H56">
         <v>0.22639999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="9">
+        <v>0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>20</v>
@@ -4210,6 +4450,9 @@
       </c>
       <c r="H57">
         <v>0.1817</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
